--- a/Manual Tecnico/Extensiones originales/Tabla de analisis sintactico.xlsx
+++ b/Manual Tecnico/Extensiones originales/Tabla de analisis sintactico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffrey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffrey\Documents\Visual Studio 2012\Projects\Proyecto1LFP\Proyecto1LFP\Manual Tecnico\Extensiones originales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30619A-78B5-4398-9D2D-358D88DBDF65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF17340-B0F4-4574-B6AD-BCD017D4C0C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8FA35D13-EE7F-4D24-ABCB-73E245BD8EA5}"/>
   </bookViews>
@@ -482,7 +482,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,7 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -531,11 +537,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -549,8 +566,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A91AF1B-D716-48D8-B96C-BE6845FF720D}" name="Tabla2" displayName="Tabla2" ref="C2:AT36" totalsRowShown="0">
-  <autoFilter ref="C2:AT36" xr:uid="{FE89DE5C-5BC9-4664-BBEE-F5ADE4F607CD}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A91AF1B-D716-48D8-B96C-BE6845FF720D}" name="Tabla2" displayName="Tabla2" ref="B1:AS35" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B1:AS35" xr:uid="{FE89DE5C-5BC9-4664-BBEE-F5ADE4F607CD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -943,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF91B6D2-3D05-4DAC-9F15-996E1E4A83AD}">
-  <dimension ref="B2:AT36"/>
+  <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R4" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,806 +987,806 @@
     <col min="29" max="31" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="P1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="S2" t="s">
+      <c r="R1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="U2" t="s">
+      <c r="T1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="W2" t="s">
+      <c r="V1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="X2" t="s">
+      <c r="W1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="X1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Y1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="Z1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AA1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AB1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AD1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AE1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AF1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AG1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AH1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AI1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AK1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AL1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AM1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AN1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AO1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AP1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AS2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT2" t="s">
+      <c r="AR1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="N5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="R4" t="s">
         <v>70</v>
       </c>
-      <c r="AR5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="AQ4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" t="s">
+        <v>102</v>
+      </c>
+      <c r="U6" t="s">
+        <v>102</v>
+      </c>
+      <c r="V6" t="s">
+        <v>102</v>
+      </c>
+      <c r="W6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" t="s">
-        <v>114</v>
-      </c>
-      <c r="S7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X11" s="1"/>
+      <c r="AB11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12" t="s">
+        <v>130</v>
+      </c>
+      <c r="S12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="AF12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" t="s">
+        <v>82</v>
+      </c>
+      <c r="S19" t="s">
+        <v>82</v>
+      </c>
+      <c r="T19" t="s">
+        <v>82</v>
+      </c>
+      <c r="V19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" t="s">
+        <v>83</v>
+      </c>
+      <c r="S20" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" t="s">
+        <v>85</v>
+      </c>
+      <c r="V20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AG21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" t="s">
+        <v>92</v>
+      </c>
+      <c r="S23" t="s">
+        <v>92</v>
+      </c>
+      <c r="T23" t="s">
+        <v>92</v>
+      </c>
+      <c r="U23" t="s">
+        <v>92</v>
+      </c>
+      <c r="V23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" t="s">
+        <v>41</v>
+      </c>
+      <c r="T24" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO26" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" t="s">
+        <v>96</v>
+      </c>
+      <c r="L29" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" t="s">
+        <v>61</v>
+      </c>
+      <c r="N29" t="s">
+        <v>61</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="R29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" t="s">
+        <v>61</v>
+      </c>
+      <c r="N30" t="s">
+        <v>61</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="R30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="T7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U7" t="s">
-        <v>102</v>
-      </c>
-      <c r="V7" t="s">
-        <v>102</v>
-      </c>
-      <c r="W7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y12" s="1"/>
-      <c r="AC12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="S13" t="s">
-        <v>130</v>
-      </c>
-      <c r="T13" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y13" s="1"/>
-      <c r="AG13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S20" t="s">
-        <v>82</v>
-      </c>
-      <c r="T20" t="s">
-        <v>82</v>
-      </c>
-      <c r="U20" t="s">
-        <v>82</v>
-      </c>
-      <c r="W20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S21" t="s">
-        <v>83</v>
-      </c>
-      <c r="T21" t="s">
-        <v>84</v>
-      </c>
-      <c r="U21" t="s">
-        <v>85</v>
-      </c>
-      <c r="W21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AH22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" t="s">
-        <v>88</v>
-      </c>
-      <c r="N23" t="s">
-        <v>89</v>
-      </c>
-      <c r="O23" t="s">
-        <v>90</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S24" t="s">
-        <v>92</v>
-      </c>
-      <c r="T24" t="s">
-        <v>92</v>
-      </c>
-      <c r="U24" t="s">
-        <v>92</v>
-      </c>
-      <c r="V24" t="s">
-        <v>92</v>
-      </c>
-      <c r="W24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" t="s">
-        <v>40</v>
-      </c>
-      <c r="T25" t="s">
-        <v>41</v>
-      </c>
-      <c r="U25" t="s">
-        <v>42</v>
-      </c>
-      <c r="V25" t="s">
-        <v>43</v>
-      </c>
-      <c r="W25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP27" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ28" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" t="s">
-        <v>61</v>
-      </c>
-      <c r="K30" t="s">
-        <v>61</v>
-      </c>
-      <c r="L30" t="s">
-        <v>96</v>
-      </c>
-      <c r="M30" t="s">
-        <v>61</v>
-      </c>
-      <c r="N30" t="s">
-        <v>61</v>
-      </c>
-      <c r="O30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P30" t="s">
-        <v>61</v>
-      </c>
-      <c r="S30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" t="s">
-        <v>61</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N31" t="s">
-        <v>61</v>
-      </c>
-      <c r="O31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" t="s">
-        <v>61</v>
+      <c r="R31" t="s">
+        <v>132</v>
       </c>
       <c r="S31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="S32" t="s">
-        <v>132</v>
-      </c>
-      <c r="T32" t="s">
         <v>103</v>
       </c>
-      <c r="U32" t="s">
+      <c r="T31" t="s">
         <v>104</v>
       </c>
+      <c r="AF31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="AG32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="X33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AA34" s="1" t="s">
+      <c r="Z33" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="AA33" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
       <c r="AB34" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y35" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="R35" t="s">
+        <v>137</v>
+      </c>
+      <c r="V35" t="s">
+        <v>138</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="S36" t="s">
-        <v>137</v>
-      </c>
-      <c r="W36" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
